--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.947789333333333</v>
+        <v>1.488897</v>
       </c>
       <c r="H2">
-        <v>8.843368</v>
+        <v>4.466691</v>
       </c>
       <c r="I2">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="J2">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>19.88206181954578</v>
+        <v>9.388755191862</v>
       </c>
       <c r="R2">
-        <v>178.938556375912</v>
+        <v>84.498796726758</v>
       </c>
       <c r="S2">
-        <v>4.770355535287067E-05</v>
+        <v>2.186686426103072E-05</v>
       </c>
       <c r="T2">
-        <v>4.770355535287067E-05</v>
+        <v>2.186686426103072E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.947789333333333</v>
+        <v>1.488897</v>
       </c>
       <c r="H3">
-        <v>8.843368</v>
+        <v>4.466691</v>
       </c>
       <c r="I3">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="J3">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>538.0649461775885</v>
+        <v>271.770874231053</v>
       </c>
       <c r="R3">
-        <v>4842.584515598296</v>
+        <v>2445.937868079477</v>
       </c>
       <c r="S3">
-        <v>0.001290993417905405</v>
+        <v>0.0006329674909473813</v>
       </c>
       <c r="T3">
-        <v>0.001290993417905406</v>
+        <v>0.0006329674909473812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.947789333333333</v>
+        <v>1.488897</v>
       </c>
       <c r="H4">
-        <v>8.843368</v>
+        <v>4.466691</v>
       </c>
       <c r="I4">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="J4">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>734.391347454047</v>
+        <v>189.680107348521</v>
       </c>
       <c r="R4">
-        <v>6609.522127086424</v>
+        <v>1707.120966136689</v>
       </c>
       <c r="S4">
-        <v>0.001762044530990387</v>
+        <v>0.0004417741303983518</v>
       </c>
       <c r="T4">
-        <v>0.001762044530990387</v>
+        <v>0.0004417741303983518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.947789333333333</v>
+        <v>1.488897</v>
       </c>
       <c r="H5">
-        <v>8.843368</v>
+        <v>4.466691</v>
       </c>
       <c r="I5">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="J5">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>51.46970271769245</v>
+        <v>28.920337313196</v>
       </c>
       <c r="R5">
-        <v>463.2273244592321</v>
+        <v>260.283035818764</v>
       </c>
       <c r="S5">
-        <v>0.0001234926153471407</v>
+        <v>6.73568622770172E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001234926153471408</v>
+        <v>6.735686227701719E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.947789333333333</v>
+        <v>1.488897</v>
       </c>
       <c r="H6">
-        <v>8.843368</v>
+        <v>4.466691</v>
       </c>
       <c r="I6">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="J6">
-        <v>0.004546343240452628</v>
+        <v>0.001612421635273429</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>551.0334623618124</v>
+        <v>192.54915777093</v>
       </c>
       <c r="R6">
-        <v>4959.301161256312</v>
+        <v>1732.94241993837</v>
       </c>
       <c r="S6">
-        <v>0.001322109120856824</v>
+        <v>0.0004484562873896482</v>
       </c>
       <c r="T6">
-        <v>0.001322109120856824</v>
+        <v>0.0004484562873896481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>308.142446</v>
+        <v>400.866455</v>
       </c>
       <c r="H7">
-        <v>924.427338</v>
+        <v>1202.599365</v>
       </c>
       <c r="I7">
-        <v>0.4752447234363556</v>
+        <v>0.43412388156962</v>
       </c>
       <c r="J7">
-        <v>0.4752447234363555</v>
+        <v>0.4341238815696199</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>2078.339551378404</v>
+        <v>2527.80213179593</v>
       </c>
       <c r="R7">
-        <v>18705.05596240564</v>
+        <v>22750.21918616337</v>
       </c>
       <c r="S7">
-        <v>0.004986614905993948</v>
+        <v>0.005887373242262951</v>
       </c>
       <c r="T7">
-        <v>0.004986614905993948</v>
+        <v>0.00588737324226295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>308.142446</v>
+        <v>400.866455</v>
       </c>
       <c r="H8">
-        <v>924.427338</v>
+        <v>1202.599365</v>
       </c>
       <c r="I8">
-        <v>0.4752447234363556</v>
+        <v>0.43412388156962</v>
       </c>
       <c r="J8">
-        <v>0.4752447234363555</v>
+        <v>0.4341238815696199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>56245.75906668833</v>
+        <v>73170.82842214947</v>
       </c>
       <c r="R8">
-        <v>506211.8316001949</v>
+        <v>658537.4557993452</v>
       </c>
       <c r="S8">
-        <v>0.1349519333233465</v>
+        <v>0.1704183930965818</v>
       </c>
       <c r="T8">
-        <v>0.1349519333233465</v>
+        <v>0.1704183930965817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>308.142446</v>
+        <v>400.866455</v>
       </c>
       <c r="H9">
-        <v>924.427338</v>
+        <v>1202.599365</v>
       </c>
       <c r="I9">
-        <v>0.4752447234363556</v>
+        <v>0.43412388156962</v>
       </c>
       <c r="J9">
-        <v>0.4752447234363555</v>
+        <v>0.4341238815696199</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>76768.4256017818</v>
+        <v>51068.94044169682</v>
       </c>
       <c r="R9">
-        <v>690915.8304160361</v>
+        <v>459620.4639752714</v>
       </c>
       <c r="S9">
-        <v>0.1841925084674642</v>
+        <v>0.1189420286047289</v>
       </c>
       <c r="T9">
-        <v>0.1841925084674642</v>
+        <v>0.1189420286047289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>308.142446</v>
+        <v>400.866455</v>
       </c>
       <c r="H10">
-        <v>924.427338</v>
+        <v>1202.599365</v>
       </c>
       <c r="I10">
-        <v>0.4752447234363556</v>
+        <v>0.43412388156962</v>
       </c>
       <c r="J10">
-        <v>0.4752447234363555</v>
+        <v>0.4341238815696199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>5380.303100692836</v>
+        <v>7786.430556408607</v>
       </c>
       <c r="R10">
-        <v>48422.72790623552</v>
+        <v>70077.87500767746</v>
       </c>
       <c r="S10">
-        <v>0.01290910314577153</v>
+        <v>0.01813497280262578</v>
       </c>
       <c r="T10">
-        <v>0.01290910314577153</v>
+        <v>0.01813497280262577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>308.142446</v>
+        <v>400.866455</v>
       </c>
       <c r="H11">
-        <v>924.427338</v>
+        <v>1202.599365</v>
       </c>
       <c r="I11">
-        <v>0.4752447234363556</v>
+        <v>0.43412388156962</v>
       </c>
       <c r="J11">
-        <v>0.4752447234363555</v>
+        <v>0.4341238815696199</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>57601.40217619051</v>
+        <v>51841.3955356673</v>
       </c>
       <c r="R11">
-        <v>518412.6195857145</v>
+        <v>466572.5598210056</v>
       </c>
       <c r="S11">
-        <v>0.1382045635937795</v>
+        <v>0.1207411138234206</v>
       </c>
       <c r="T11">
-        <v>0.1382045635937794</v>
+        <v>0.1207411138234206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>0.703739</v>
       </c>
       <c r="I12">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="J12">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1.582178000827889</v>
+        <v>1.479223252731333</v>
       </c>
       <c r="R12">
-        <v>14.239602007451</v>
+        <v>13.313009274582</v>
       </c>
       <c r="S12">
-        <v>3.796161410502633E-06</v>
+        <v>3.445182393004911E-06</v>
       </c>
       <c r="T12">
-        <v>3.796161410502634E-06</v>
+        <v>3.445182393004911E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>0.703739</v>
       </c>
       <c r="I13">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="J13">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
         <v>42.81822119785922</v>
@@ -1258,10 +1258,10 @@
         <v>385.363990780733</v>
       </c>
       <c r="S13">
-        <v>0.0001027348875364377</v>
+        <v>9.972570502679032E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001027348875364377</v>
+        <v>9.972570502679031E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1290,10 +1290,10 @@
         <v>0.703739</v>
       </c>
       <c r="I14">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="J14">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>58.44151600000855</v>
+        <v>29.88460340447567</v>
       </c>
       <c r="R14">
-        <v>525.973644000077</v>
+        <v>268.961430640281</v>
       </c>
       <c r="S14">
-        <v>0.0001402202708509522</v>
+        <v>6.960268457173457E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001402202708509522</v>
+        <v>6.960268457173457E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1352,10 +1352,10 @@
         <v>0.703739</v>
       </c>
       <c r="I15">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="J15">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>4.095864507826223</v>
+        <v>4.556475758106222</v>
       </c>
       <c r="R15">
-        <v>36.862780570436</v>
+        <v>41.008281822956</v>
       </c>
       <c r="S15">
-        <v>9.827315750264093E-06</v>
+        <v>1.061225209041006E-05</v>
       </c>
       <c r="T15">
-        <v>9.827315750264094E-06</v>
+        <v>1.061225209041006E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1414,10 +1414,10 @@
         <v>0.703739</v>
       </c>
       <c r="I16">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="J16">
-        <v>0.000361789653635684</v>
+        <v>0.0002540413001897126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>43.85023192171123</v>
+        <v>30.33662989908111</v>
       </c>
       <c r="R16">
-        <v>394.652087295401</v>
+        <v>273.02966909173</v>
       </c>
       <c r="S16">
-        <v>0.0001052110180875274</v>
+        <v>7.065547610777276E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001052110180875274</v>
+        <v>7.065547610777275E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>337.0620703333333</v>
+        <v>520.8019203333333</v>
       </c>
       <c r="H17">
-        <v>1011.186211</v>
+        <v>1562.405761</v>
       </c>
       <c r="I17">
-        <v>0.5198471436695561</v>
+        <v>0.564009655494917</v>
       </c>
       <c r="J17">
-        <v>0.5198471436695561</v>
+        <v>0.5640096554949169</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>2273.394792365789</v>
+        <v>3284.096706126269</v>
       </c>
       <c r="R17">
-        <v>20460.5531312921</v>
+        <v>29556.87035513642</v>
       </c>
       <c r="S17">
-        <v>0.005454616090667951</v>
+        <v>0.007648819830259002</v>
       </c>
       <c r="T17">
-        <v>0.005454616090667952</v>
+        <v>0.007648819830259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>337.0620703333333</v>
+        <v>520.8019203333333</v>
       </c>
       <c r="H18">
-        <v>1011.186211</v>
+        <v>1562.405761</v>
       </c>
       <c r="I18">
-        <v>0.5198471436695561</v>
+        <v>0.564009655494917</v>
       </c>
       <c r="J18">
-        <v>0.5198471436695561</v>
+        <v>0.5640096554949169</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>61524.50674869966</v>
+        <v>95062.85068087398</v>
       </c>
       <c r="R18">
-        <v>553720.5607382969</v>
+        <v>855565.6561278658</v>
       </c>
       <c r="S18">
-        <v>0.1476173718743477</v>
+        <v>0.2214059701873051</v>
       </c>
       <c r="T18">
-        <v>0.1476173718743477</v>
+        <v>0.221405970187305</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>337.0620703333333</v>
+        <v>520.8019203333333</v>
       </c>
       <c r="H19">
-        <v>1011.186211</v>
+        <v>1562.405761</v>
       </c>
       <c r="I19">
-        <v>0.5198471436695561</v>
+        <v>0.564009655494917</v>
       </c>
       <c r="J19">
-        <v>0.5198471436695561</v>
+        <v>0.5640096554949169</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>83973.25589337031</v>
+        <v>66348.28611794002</v>
       </c>
       <c r="R19">
-        <v>755759.3030403327</v>
+        <v>597134.5750614603</v>
       </c>
       <c r="S19">
-        <v>0.2014792478279137</v>
+        <v>0.1545283625832076</v>
       </c>
       <c r="T19">
-        <v>0.2014792478279137</v>
+        <v>0.1545283625832075</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>337.0620703333333</v>
+        <v>520.8019203333333</v>
       </c>
       <c r="H20">
-        <v>1011.186211</v>
+        <v>1562.405761</v>
       </c>
       <c r="I20">
-        <v>0.5198471436695561</v>
+        <v>0.564009655494917</v>
       </c>
       <c r="J20">
-        <v>0.5198471436695561</v>
+        <v>0.5640096554949169</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>5885.252504747041</v>
+        <v>10116.05719495723</v>
       </c>
       <c r="R20">
-        <v>52967.27254272337</v>
+        <v>91044.51475461504</v>
       </c>
       <c r="S20">
-        <v>0.0141206415699715</v>
+        <v>0.02356078575045717</v>
       </c>
       <c r="T20">
-        <v>0.0141206415699715</v>
+        <v>0.02356078575045716</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>337.0620703333333</v>
+        <v>520.8019203333333</v>
       </c>
       <c r="H21">
-        <v>1011.186211</v>
+        <v>1562.405761</v>
       </c>
       <c r="I21">
-        <v>0.5198471436695561</v>
+        <v>0.564009655494917</v>
       </c>
       <c r="J21">
-        <v>0.5198471436695561</v>
+        <v>0.5640096554949169</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>63007.37896917242</v>
+        <v>67351.8524959526</v>
       </c>
       <c r="R21">
-        <v>567066.4107225516</v>
+        <v>606166.6724635733</v>
       </c>
       <c r="S21">
-        <v>0.1511752663066552</v>
+        <v>0.1568657171436882</v>
       </c>
       <c r="T21">
-        <v>0.1511752663066552</v>
+        <v>0.1568657171436882</v>
       </c>
     </row>
   </sheetData>
